--- a/RUDN/Importance/Varible_reg_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Middle Africa.xlsx
@@ -14,216 +14,780 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
   <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
     <t>Male population 25-29</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
   </si>
   <si>
     <t>Female population 25-29</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
   </si>
 </sst>
 </file>
@@ -581,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08602150529623032</v>
+        <v>0.02031249925494194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -605,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03225806355476379</v>
+        <v>0.02031249925494194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -613,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03225806355476379</v>
+        <v>0.02031249925494194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -621,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02150537632405758</v>
+        <v>0.01875000074505806</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -629,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02150537632405758</v>
+        <v>0.01875000074505806</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -637,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02150537632405758</v>
+        <v>0.01875000074505806</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -645,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02150537632405758</v>
+        <v>0.01510416623204947</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -653,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02150537632405758</v>
+        <v>0.0145833333954215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -661,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02150537632405758</v>
+        <v>0.0145833333954215</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -669,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02150537632405758</v>
+        <v>0.01406249962747097</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -677,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02150537632405758</v>
+        <v>0.01354166679084301</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -685,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02150537632405758</v>
+        <v>0.01354166679084301</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -693,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02150537632405758</v>
+        <v>0.01250000018626451</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -701,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02150537632405758</v>
+        <v>0.01197916641831398</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -709,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02150537632405758</v>
+        <v>0.01197916641831398</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -717,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01075268816202879</v>
+        <v>0.01197916641831398</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -725,7 +1289,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01075268816202879</v>
+        <v>0.01145833358168602</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -733,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01075268816202879</v>
+        <v>0.01093749981373549</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -741,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01075268816202879</v>
+        <v>0.00989583320915699</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -749,7 +1313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01075268816202879</v>
+        <v>0.00989583320915699</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -757,7 +1321,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01075268816202879</v>
+        <v>0.00937500037252903</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -765,7 +1329,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01075268816202879</v>
+        <v>0.00937500037252903</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -773,7 +1337,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01075268816202879</v>
+        <v>0.00937500037252903</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -781,7 +1345,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01075268816202879</v>
+        <v>0.008854166604578495</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -789,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01075268816202879</v>
+        <v>0.008854166604578495</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -797,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -805,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -813,7 +1377,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -821,7 +1385,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -829,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -837,7 +1401,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -845,7 +1409,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01075268816202879</v>
+        <v>0.008333333767950535</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -853,7 +1417,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01075268816202879</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -861,7 +1425,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01075268816202879</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -869,7 +1433,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01075268816202879</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -877,7 +1441,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01075268816202879</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -885,7 +1449,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01075268816202879</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -893,7 +1457,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01075268816202879</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -901,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01075268816202879</v>
+        <v>0.007291666697710752</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -909,7 +1473,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01075268816202879</v>
+        <v>0.007291666697710752</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -917,7 +1481,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01075268816202879</v>
+        <v>0.007291666697710752</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -925,7 +1489,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.01075268816202879</v>
+        <v>0.007291666697710752</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -933,7 +1497,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -941,7 +1505,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -949,7 +1513,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -957,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -965,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -973,7 +1537,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -981,7 +1545,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -989,7 +1553,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -997,7 +1561,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1005,7 +1569,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01075268816202879</v>
+        <v>0.006770833395421505</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1013,7 +1577,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1021,7 +1585,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1029,7 +1593,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1037,7 +1601,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1045,7 +1609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1053,7 +1617,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1061,7 +1625,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01075268816202879</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1069,7 +1633,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1077,7 +1641,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1085,7 +1649,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1093,7 +1657,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1101,7 +1665,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1109,7 +1673,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1117,7 +1681,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01075268816202879</v>
+        <v>0.00572916679084301</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1125,7 +1689,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01075268816202879</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1133,7 +1697,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01075268816202879</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1141,7 +1705,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01075268816202879</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1149,7 +1713,1511 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.01075268816202879</v>
+        <v>0.005208333488553762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.005208333488553762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.005208333488553762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.004687500186264515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.004166666883975267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.003645833348855376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.003125000046566129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.002604166744276881</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.002083333441987634</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.001562500023283064</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.001041666720993817</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.0005208333604969084</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.0005208333604969084</v>
       </c>
     </row>
   </sheetData>
